--- a/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW22.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW22.xlsx
@@ -1699,37 +1699,37 @@
         <v>42.0</v>
       </c>
       <c r="B43" t="n">
-        <v>3.6531000015840003</v>
+        <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>3.6531000015840003</v>
+        <v>0.0</v>
       </c>
       <c r="D43" t="n">
-        <v>3.6531000015840003</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n">
-        <v>3.6531000015840003</v>
+        <v>0.0</v>
       </c>
       <c r="F43" t="n">
-        <v>3.6531000015840003</v>
+        <v>0.0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.6531000015840003</v>
+        <v>0.0</v>
       </c>
       <c r="H43" t="n">
-        <v>3.6531000015840003</v>
+        <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>3.6531000015840003</v>
+        <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>3.6531000015840003</v>
+        <v>0.0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.6531000015840003</v>
+        <v>0.0</v>
       </c>
       <c r="L43" t="n">
-        <v>3.6531000015840003</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>0.34754078963449997</v>
+        <v>0.0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.34754078963449997</v>
+        <v>0.0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.34754078963449997</v>
+        <v>0.0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.34754078963449997</v>
+        <v>0.0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.34754078963449997</v>
+        <v>0.0</v>
       </c>
       <c r="G79" t="n">
-        <v>0.34754078963449997</v>
+        <v>0.0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.34754078963449997</v>
+        <v>0.0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.34754078963449997</v>
+        <v>0.0</v>
       </c>
       <c r="J79" t="n">
-        <v>0.34754078963449997</v>
+        <v>0.0</v>
       </c>
       <c r="K79" t="n">
-        <v>0.34754078963449997</v>
+        <v>0.0</v>
       </c>
       <c r="L79" t="n">
-        <v>0.34754078963449997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8991500002939999</v>
+        <v>0.0</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8991500002939999</v>
+        <v>0.0</v>
       </c>
       <c r="D116" t="n">
-        <v>0.8991500002939999</v>
+        <v>0.0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.8991500002939999</v>
+        <v>0.0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8991500002939999</v>
+        <v>0.0</v>
       </c>
       <c r="G116" t="n">
-        <v>0.8991500002939999</v>
+        <v>0.0</v>
       </c>
       <c r="H116" t="n">
-        <v>0.8991500002939999</v>
+        <v>0.0</v>
       </c>
       <c r="I116" t="n">
-        <v>0.8991500002939999</v>
+        <v>0.0</v>
       </c>
       <c r="J116" t="n">
-        <v>0.8991500002939999</v>
+        <v>0.0</v>
       </c>
       <c r="K116" t="n">
-        <v>0.8991500002939999</v>
+        <v>0.0</v>
       </c>
       <c r="L116" t="n">
-        <v>0.8991500002939999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="117">
@@ -5803,37 +5803,37 @@
         <v>150.0</v>
       </c>
       <c r="B151" t="n">
-        <v>0.6808421054399999</v>
+        <v>0.0</v>
       </c>
       <c r="C151" t="n">
-        <v>0.6808421054399999</v>
+        <v>0.0</v>
       </c>
       <c r="D151" t="n">
-        <v>0.6808421054399999</v>
+        <v>0.0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.6808421054399999</v>
+        <v>0.0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.6808421054399999</v>
+        <v>0.0</v>
       </c>
       <c r="G151" t="n">
-        <v>0.6808421054399999</v>
+        <v>0.0</v>
       </c>
       <c r="H151" t="n">
-        <v>0.6808421054399999</v>
+        <v>0.0</v>
       </c>
       <c r="I151" t="n">
-        <v>0.6808421054399999</v>
+        <v>0.0</v>
       </c>
       <c r="J151" t="n">
-        <v>0.6808421054399999</v>
+        <v>0.0</v>
       </c>
       <c r="K151" t="n">
-        <v>0.6808421054399999</v>
+        <v>0.0</v>
       </c>
       <c r="L151" t="n">
-        <v>0.6808421054399999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="152">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>0.34042105271999995</v>
+        <v>0.0</v>
       </c>
       <c r="C157" t="n">
-        <v>0.34042105271999995</v>
+        <v>0.0</v>
       </c>
       <c r="D157" t="n">
-        <v>0.34042105271999995</v>
+        <v>0.0</v>
       </c>
       <c r="E157" t="n">
-        <v>0.34042105271999995</v>
+        <v>0.0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.34042105271999995</v>
+        <v>0.0</v>
       </c>
       <c r="G157" t="n">
-        <v>0.34042105271999995</v>
+        <v>0.0</v>
       </c>
       <c r="H157" t="n">
-        <v>0.34042105271999995</v>
+        <v>0.0</v>
       </c>
       <c r="I157" t="n">
-        <v>0.34042105271999995</v>
+        <v>0.0</v>
       </c>
       <c r="J157" t="n">
-        <v>0.34042105271999995</v>
+        <v>0.0</v>
       </c>
       <c r="K157" t="n">
-        <v>0.34042105271999995</v>
+        <v>0.0</v>
       </c>
       <c r="L157" t="n">
-        <v>0.34042105271999995</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="158">
@@ -6601,37 +6601,37 @@
         <v>171.0</v>
       </c>
       <c r="B172" t="n">
-        <v>2.5210500000000002</v>
+        <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>2.5210500000000002</v>
+        <v>0.0</v>
       </c>
       <c r="D172" t="n">
-        <v>2.5210500000000002</v>
+        <v>0.0</v>
       </c>
       <c r="E172" t="n">
-        <v>2.5210500000000002</v>
+        <v>0.0</v>
       </c>
       <c r="F172" t="n">
-        <v>2.5210500000000002</v>
+        <v>0.0</v>
       </c>
       <c r="G172" t="n">
-        <v>2.5210500000000002</v>
+        <v>0.0</v>
       </c>
       <c r="H172" t="n">
-        <v>2.5210500000000002</v>
+        <v>0.0</v>
       </c>
       <c r="I172" t="n">
-        <v>2.5210500000000002</v>
+        <v>0.0</v>
       </c>
       <c r="J172" t="n">
-        <v>2.5210500000000002</v>
+        <v>0.0</v>
       </c>
       <c r="K172" t="n">
-        <v>2.5210500000000002</v>
+        <v>0.0</v>
       </c>
       <c r="L172" t="n">
-        <v>2.5210500000000002</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
@@ -7513,37 +7513,37 @@
         <v>195.0</v>
       </c>
       <c r="B196" t="n">
-        <v>0.9132750003960001</v>
+        <v>0.0</v>
       </c>
       <c r="C196" t="n">
-        <v>0.9132750003960001</v>
+        <v>0.0</v>
       </c>
       <c r="D196" t="n">
-        <v>0.9132750003960001</v>
+        <v>0.0</v>
       </c>
       <c r="E196" t="n">
-        <v>0.9132750003960001</v>
+        <v>0.0</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9132750003960001</v>
+        <v>0.0</v>
       </c>
       <c r="G196" t="n">
-        <v>0.9132750003960001</v>
+        <v>0.0</v>
       </c>
       <c r="H196" t="n">
-        <v>0.9132750003960001</v>
+        <v>0.0</v>
       </c>
       <c r="I196" t="n">
-        <v>0.9132750003960001</v>
+        <v>0.0</v>
       </c>
       <c r="J196" t="n">
-        <v>0.9132750003960001</v>
+        <v>0.0</v>
       </c>
       <c r="K196" t="n">
-        <v>0.9132750003960001</v>
+        <v>0.0</v>
       </c>
       <c r="L196" t="n">
-        <v>0.9132750003960001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="197">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>1.004628946881</v>
+        <v>0.0</v>
       </c>
       <c r="C214" t="n">
-        <v>1.004628946881</v>
+        <v>0.0</v>
       </c>
       <c r="D214" t="n">
-        <v>1.004628946881</v>
+        <v>0.0</v>
       </c>
       <c r="E214" t="n">
-        <v>1.004628946881</v>
+        <v>0.0</v>
       </c>
       <c r="F214" t="n">
-        <v>1.004628946881</v>
+        <v>0.0</v>
       </c>
       <c r="G214" t="n">
-        <v>1.004628946881</v>
+        <v>0.0</v>
       </c>
       <c r="H214" t="n">
-        <v>1.004628946881</v>
+        <v>0.0</v>
       </c>
       <c r="I214" t="n">
-        <v>1.004628946881</v>
+        <v>0.0</v>
       </c>
       <c r="J214" t="n">
-        <v>1.004628946881</v>
+        <v>0.0</v>
       </c>
       <c r="K214" t="n">
-        <v>1.004628946881</v>
+        <v>0.0</v>
       </c>
       <c r="L214" t="n">
-        <v>1.004628946881</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="215">
@@ -8577,37 +8577,37 @@
         <v>223.0</v>
       </c>
       <c r="B224" t="n">
-        <v>1.3299999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="C224" t="n">
-        <v>1.3299999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="D224" t="n">
-        <v>1.3299999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="E224" t="n">
-        <v>1.3299999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="F224" t="n">
-        <v>1.3299999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="G224" t="n">
-        <v>1.3299999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="H224" t="n">
-        <v>1.3299999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="I224" t="n">
-        <v>1.3299999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="J224" t="n">
-        <v>1.3299999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="K224" t="n">
-        <v>1.3299999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="L224" t="n">
-        <v>1.3299999999999998</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="225">
@@ -8995,37 +8995,37 @@
         <v>234.0</v>
       </c>
       <c r="B235" t="n">
-        <v>0.691452631296</v>
+        <v>0.0</v>
       </c>
       <c r="C235" t="n">
-        <v>0.691452631296</v>
+        <v>0.0</v>
       </c>
       <c r="D235" t="n">
-        <v>0.691452631296</v>
+        <v>0.0</v>
       </c>
       <c r="E235" t="n">
-        <v>0.691452631296</v>
+        <v>0.0</v>
       </c>
       <c r="F235" t="n">
-        <v>0.691452631296</v>
+        <v>0.0</v>
       </c>
       <c r="G235" t="n">
-        <v>0.691452631296</v>
+        <v>0.0</v>
       </c>
       <c r="H235" t="n">
-        <v>0.691452631296</v>
+        <v>0.0</v>
       </c>
       <c r="I235" t="n">
-        <v>0.691452631296</v>
+        <v>0.0</v>
       </c>
       <c r="J235" t="n">
-        <v>0.691452631296</v>
+        <v>0.0</v>
       </c>
       <c r="K235" t="n">
-        <v>0.691452631296</v>
+        <v>0.0</v>
       </c>
       <c r="L235" t="n">
-        <v>0.691452631296</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="236">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>3.9938684219280005</v>
+        <v>0.0</v>
       </c>
       <c r="C266" t="n">
-        <v>3.9938684219280005</v>
+        <v>0.0</v>
       </c>
       <c r="D266" t="n">
-        <v>3.9938684219280005</v>
+        <v>0.0</v>
       </c>
       <c r="E266" t="n">
-        <v>3.9938684219280005</v>
+        <v>0.0</v>
       </c>
       <c r="F266" t="n">
-        <v>3.9938684219280005</v>
+        <v>0.0</v>
       </c>
       <c r="G266" t="n">
-        <v>3.9938684219280005</v>
+        <v>0.0</v>
       </c>
       <c r="H266" t="n">
-        <v>3.9938684219280005</v>
+        <v>0.0</v>
       </c>
       <c r="I266" t="n">
-        <v>3.9938684219280005</v>
+        <v>0.0</v>
       </c>
       <c r="J266" t="n">
-        <v>3.9938684219280005</v>
+        <v>0.0</v>
       </c>
       <c r="K266" t="n">
-        <v>3.9938684219280005</v>
+        <v>0.0</v>
       </c>
       <c r="L266" t="n">
-        <v>3.9938684219280005</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="267">
@@ -11807,37 +11807,37 @@
         <v>308.0</v>
       </c>
       <c r="B309" t="n">
-        <v>0.298399999888</v>
+        <v>0.0</v>
       </c>
       <c r="C309" t="n">
-        <v>0.298399999888</v>
+        <v>0.0</v>
       </c>
       <c r="D309" t="n">
-        <v>0.298399999888</v>
+        <v>0.0</v>
       </c>
       <c r="E309" t="n">
-        <v>0.298399999888</v>
+        <v>0.0</v>
       </c>
       <c r="F309" t="n">
-        <v>0.298399999888</v>
+        <v>0.0</v>
       </c>
       <c r="G309" t="n">
-        <v>0.298399999888</v>
+        <v>0.0</v>
       </c>
       <c r="H309" t="n">
-        <v>0.298399999888</v>
+        <v>0.0</v>
       </c>
       <c r="I309" t="n">
-        <v>0.298399999888</v>
+        <v>0.0</v>
       </c>
       <c r="J309" t="n">
-        <v>0.298399999888</v>
+        <v>0.0</v>
       </c>
       <c r="K309" t="n">
-        <v>0.298399999888</v>
+        <v>0.0</v>
       </c>
       <c r="L309" t="n">
-        <v>0.298399999888</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="310">
@@ -13061,37 +13061,37 @@
         <v>341.0</v>
       </c>
       <c r="B342" t="n">
-        <v>2.7249750008909994</v>
+        <v>0.0</v>
       </c>
       <c r="C342" t="n">
-        <v>2.7249750008909994</v>
+        <v>0.0</v>
       </c>
       <c r="D342" t="n">
-        <v>2.7249750008909994</v>
+        <v>0.0</v>
       </c>
       <c r="E342" t="n">
-        <v>2.7249750008909994</v>
+        <v>0.0</v>
       </c>
       <c r="F342" t="n">
-        <v>2.7249750008909994</v>
+        <v>0.0</v>
       </c>
       <c r="G342" t="n">
-        <v>2.7249750008909994</v>
+        <v>0.0</v>
       </c>
       <c r="H342" t="n">
-        <v>2.7249750008909994</v>
+        <v>0.0</v>
       </c>
       <c r="I342" t="n">
-        <v>2.7249750008909994</v>
+        <v>0.0</v>
       </c>
       <c r="J342" t="n">
-        <v>2.7249750008909994</v>
+        <v>0.0</v>
       </c>
       <c r="K342" t="n">
-        <v>2.7249750008909994</v>
+        <v>0.0</v>
       </c>
       <c r="L342" t="n">
-        <v>2.7249750008909994</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="343">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="C397" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="D397" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="E397" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="F397" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="G397" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="H397" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="I397" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="J397" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="K397" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
       <c r="L397" t="n">
-        <v>0.317674999903</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="398">
@@ -16405,37 +16405,37 @@
         <v>429.0</v>
       </c>
       <c r="B430" t="n">
-        <v>5.595833332200001</v>
+        <v>0.0</v>
       </c>
       <c r="C430" t="n">
-        <v>5.595833332200001</v>
+        <v>0.0</v>
       </c>
       <c r="D430" t="n">
-        <v>5.595833332200001</v>
+        <v>0.0</v>
       </c>
       <c r="E430" t="n">
-        <v>5.595833332200001</v>
+        <v>0.0</v>
       </c>
       <c r="F430" t="n">
-        <v>5.595833332200001</v>
+        <v>0.0</v>
       </c>
       <c r="G430" t="n">
-        <v>5.595833332200001</v>
+        <v>0.0</v>
       </c>
       <c r="H430" t="n">
-        <v>5.595833332200001</v>
+        <v>0.0</v>
       </c>
       <c r="I430" t="n">
-        <v>5.595833332200001</v>
+        <v>0.0</v>
       </c>
       <c r="J430" t="n">
-        <v>5.595833332200001</v>
+        <v>0.0</v>
       </c>
       <c r="K430" t="n">
-        <v>5.595833332200001</v>
+        <v>0.0</v>
       </c>
       <c r="L430" t="n">
-        <v>5.595833332200001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="431">
@@ -19559,37 +19559,37 @@
         <v>512.0</v>
       </c>
       <c r="B513" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="C513" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="D513" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="E513" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="F513" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="G513" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="H513" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="I513" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="J513" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="K513" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
       <c r="L513" t="n">
-        <v>0.2873750000316666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="514">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>0.652197368564</v>
+        <v>0.0</v>
       </c>
       <c r="C523" t="n">
-        <v>0.652197368564</v>
+        <v>0.0</v>
       </c>
       <c r="D523" t="n">
-        <v>0.652197368564</v>
+        <v>0.0</v>
       </c>
       <c r="E523" t="n">
-        <v>0.652197368564</v>
+        <v>0.0</v>
       </c>
       <c r="F523" t="n">
-        <v>0.652197368564</v>
+        <v>0.0</v>
       </c>
       <c r="G523" t="n">
-        <v>0.652197368564</v>
+        <v>0.0</v>
       </c>
       <c r="H523" t="n">
-        <v>0.652197368564</v>
+        <v>0.0</v>
       </c>
       <c r="I523" t="n">
-        <v>0.652197368564</v>
+        <v>0.0</v>
       </c>
       <c r="J523" t="n">
-        <v>0.652197368564</v>
+        <v>0.0</v>
       </c>
       <c r="K523" t="n">
-        <v>0.652197368564</v>
+        <v>0.0</v>
       </c>
       <c r="L523" t="n">
-        <v>0.652197368564</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="524">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>2.79749999895</v>
+        <v>0.0</v>
       </c>
       <c r="C550" t="n">
-        <v>2.79749999895</v>
+        <v>0.0</v>
       </c>
       <c r="D550" t="n">
-        <v>2.79749999895</v>
+        <v>0.0</v>
       </c>
       <c r="E550" t="n">
-        <v>2.79749999895</v>
+        <v>0.0</v>
       </c>
       <c r="F550" t="n">
-        <v>2.79749999895</v>
+        <v>0.0</v>
       </c>
       <c r="G550" t="n">
-        <v>2.79749999895</v>
+        <v>0.0</v>
       </c>
       <c r="H550" t="n">
-        <v>2.79749999895</v>
+        <v>0.0</v>
       </c>
       <c r="I550" t="n">
-        <v>2.79749999895</v>
+        <v>0.0</v>
       </c>
       <c r="J550" t="n">
-        <v>2.79749999895</v>
+        <v>0.0</v>
       </c>
       <c r="K550" t="n">
-        <v>2.79749999895</v>
+        <v>0.0</v>
       </c>
       <c r="L550" t="n">
-        <v>2.79749999895</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="551">
@@ -21193,37 +21193,37 @@
         <v>555.0</v>
       </c>
       <c r="B556" t="n">
-        <v>0.34575394749349997</v>
+        <v>0.0</v>
       </c>
       <c r="C556" t="n">
-        <v>0.34575394749349997</v>
+        <v>0.0</v>
       </c>
       <c r="D556" t="n">
-        <v>0.34575394749349997</v>
+        <v>0.0</v>
       </c>
       <c r="E556" t="n">
-        <v>0.34575394749349997</v>
+        <v>0.0</v>
       </c>
       <c r="F556" t="n">
-        <v>0.34575394749349997</v>
+        <v>0.0</v>
       </c>
       <c r="G556" t="n">
-        <v>0.34575394749349997</v>
+        <v>0.0</v>
       </c>
       <c r="H556" t="n">
-        <v>0.34575394749349997</v>
+        <v>0.0</v>
       </c>
       <c r="I556" t="n">
-        <v>0.34575394749349997</v>
+        <v>0.0</v>
       </c>
       <c r="J556" t="n">
-        <v>0.34575394749349997</v>
+        <v>0.0</v>
       </c>
       <c r="K556" t="n">
-        <v>0.34575394749349997</v>
+        <v>0.0</v>
       </c>
       <c r="L556" t="n">
-        <v>0.34575394749349997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="557">
@@ -22219,37 +22219,37 @@
         <v>582.0</v>
       </c>
       <c r="B583" t="n">
-        <v>1.0914750000000002</v>
+        <v>0.0</v>
       </c>
       <c r="C583" t="n">
-        <v>1.0914750000000002</v>
+        <v>0.0</v>
       </c>
       <c r="D583" t="n">
-        <v>1.0914750000000002</v>
+        <v>0.0</v>
       </c>
       <c r="E583" t="n">
-        <v>1.0914750000000002</v>
+        <v>0.0</v>
       </c>
       <c r="F583" t="n">
-        <v>1.0914750000000002</v>
+        <v>0.0</v>
       </c>
       <c r="G583" t="n">
-        <v>1.0914750000000002</v>
+        <v>0.0</v>
       </c>
       <c r="H583" t="n">
-        <v>1.0914750000000002</v>
+        <v>0.0</v>
       </c>
       <c r="I583" t="n">
-        <v>1.0914750000000002</v>
+        <v>0.0</v>
       </c>
       <c r="J583" t="n">
-        <v>1.0914750000000002</v>
+        <v>0.0</v>
       </c>
       <c r="K583" t="n">
-        <v>1.0914750000000002</v>
+        <v>0.0</v>
       </c>
       <c r="L583" t="n">
-        <v>1.0914750000000002</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="584">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>0.31270833326999997</v>
+        <v>0.0</v>
       </c>
       <c r="C584" t="n">
-        <v>0.31270833326999997</v>
+        <v>0.0</v>
       </c>
       <c r="D584" t="n">
-        <v>0.31270833326999997</v>
+        <v>0.0</v>
       </c>
       <c r="E584" t="n">
-        <v>0.31270833326999997</v>
+        <v>0.0</v>
       </c>
       <c r="F584" t="n">
-        <v>0.31270833326999997</v>
+        <v>0.0</v>
       </c>
       <c r="G584" t="n">
-        <v>0.31270833326999997</v>
+        <v>0.0</v>
       </c>
       <c r="H584" t="n">
-        <v>0.31270833326999997</v>
+        <v>0.0</v>
       </c>
       <c r="I584" t="n">
-        <v>0.31270833326999997</v>
+        <v>0.0</v>
       </c>
       <c r="J584" t="n">
-        <v>0.31270833326999997</v>
+        <v>0.0</v>
       </c>
       <c r="K584" t="n">
-        <v>0.31270833326999997</v>
+        <v>0.0</v>
       </c>
       <c r="L584" t="n">
-        <v>0.31270833326999997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="585">
@@ -22599,37 +22599,37 @@
         <v>592.0</v>
       </c>
       <c r="B593" t="n">
-        <v>2.7078947361199996</v>
+        <v>0.0</v>
       </c>
       <c r="C593" t="n">
-        <v>2.7078947361199996</v>
+        <v>0.0</v>
       </c>
       <c r="D593" t="n">
-        <v>2.7078947361199996</v>
+        <v>0.0</v>
       </c>
       <c r="E593" t="n">
-        <v>2.7078947361199996</v>
+        <v>0.0</v>
       </c>
       <c r="F593" t="n">
-        <v>2.7078947361199996</v>
+        <v>0.0</v>
       </c>
       <c r="G593" t="n">
-        <v>2.7078947361199996</v>
+        <v>0.0</v>
       </c>
       <c r="H593" t="n">
-        <v>2.7078947361199996</v>
+        <v>0.0</v>
       </c>
       <c r="I593" t="n">
-        <v>2.7078947361199996</v>
+        <v>0.0</v>
       </c>
       <c r="J593" t="n">
-        <v>2.7078947361199996</v>
+        <v>0.0</v>
       </c>
       <c r="K593" t="n">
-        <v>2.7078947361199996</v>
+        <v>0.0</v>
       </c>
       <c r="L593" t="n">
-        <v>2.7078947361199996</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="594">
@@ -22941,37 +22941,37 @@
         <v>601.0</v>
       </c>
       <c r="B602" t="n">
-        <v>1.3034</v>
+        <v>0.0</v>
       </c>
       <c r="C602" t="n">
-        <v>1.3034</v>
+        <v>0.0</v>
       </c>
       <c r="D602" t="n">
-        <v>1.3034</v>
+        <v>0.0</v>
       </c>
       <c r="E602" t="n">
-        <v>1.3034</v>
+        <v>0.0</v>
       </c>
       <c r="F602" t="n">
-        <v>1.3034</v>
+        <v>0.0</v>
       </c>
       <c r="G602" t="n">
-        <v>1.3034</v>
+        <v>0.0</v>
       </c>
       <c r="H602" t="n">
-        <v>1.3034</v>
+        <v>0.0</v>
       </c>
       <c r="I602" t="n">
-        <v>1.3034</v>
+        <v>0.0</v>
       </c>
       <c r="J602" t="n">
-        <v>1.3034</v>
+        <v>0.0</v>
       </c>
       <c r="K602" t="n">
-        <v>1.3034</v>
+        <v>0.0</v>
       </c>
       <c r="L602" t="n">
-        <v>1.3034</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="603">
